--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12630" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <sheet name="登录" sheetId="2" r:id="rId2"/>
-    <sheet name="发邮件" sheetId="3" r:id="rId3"/>
+    <sheet name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="发邮件" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>序号</t>
   </si>
@@ -51,7 +51,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:02</t>
+    <t>2018-06-20 22:19:16</t>
   </si>
   <si>
     <t>faild</t>
@@ -66,7 +66,7 @@
     <t>发邮件</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:15</t>
+    <t>2018-06-20 22:19:29</t>
   </si>
   <si>
     <t>pass</t>
@@ -108,7 +108,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2018-06-12 22:57:45</t>
+    <t>2018-08-30 21:40:26</t>
   </si>
   <si>
     <t>访问被测试网址http://www.126.com</t>
@@ -120,7 +120,7 @@
     <t>http://www.126.com</t>
   </si>
   <si>
-    <t>2018-06-12 22:57:48</t>
+    <t>2018-06-20 22:19:01</t>
   </si>
   <si>
     <t>最大化窗口</t>
@@ -129,7 +129,7 @@
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>2018-06-12 22:57:49</t>
+    <t>2018-06-20 22:19:03</t>
   </si>
   <si>
     <t>等待126邮箱登录主页加载完成</t>
@@ -138,7 +138,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2018-06-12 22:57:54</t>
+    <t>2018-06-20 22:19:08</t>
   </si>
   <si>
     <t>断言当前活动页面源码中是否包含“126网易免费邮--你的专业电子邮局”</t>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>126网易免费邮--你的电子邮局</t>
-  </si>
-  <si>
-    <t>2018-06-12 22:57:55</t>
   </si>
   <si>
     <t xml:space="preserve">Traceback (most recent call last):
@@ -168,7 +165,7 @@
 </t>
   </si>
   <si>
-    <t>D:\PyCharm2017.3.3\KeyWordsFrameWork\exceptionpictures\2018-6-12\22-57-54-798925.png</t>
+    <t>D:\PyCharm2017.3.3\KeyWordsFrameWork\exceptionpictures\2018-6-20\22-19-08-610725.png</t>
   </si>
   <si>
     <t>显示等待id属性值为x-URS-iframe的框，然后切换进入该frame中</t>
@@ -183,6 +180,9 @@
     <t>x-URS-iframe</t>
   </si>
   <si>
+    <t>2018-06-20 22:19:09</t>
+  </si>
+  <si>
     <t>输入登录用户名</t>
   </si>
   <si>
@@ -207,9 +207,6 @@
     <t>huyixiao20160514</t>
   </si>
   <si>
-    <t>2018-06-12 22:57:56</t>
-  </si>
-  <si>
     <t>单击登录按钮</t>
   </si>
   <si>
@@ -219,10 +216,13 @@
     <t>dologin</t>
   </si>
   <si>
+    <t>2018-06-20 22:19:10</t>
+  </si>
+  <si>
     <t>等待</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:01</t>
+    <t>2018-06-20 22:19:15</t>
   </si>
   <si>
     <t>切回默认会话窗体</t>
@@ -261,7 +261,7 @@
     <t>75750165@qq.com</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:03</t>
+    <t>2018-06-20 22:19:17</t>
   </si>
   <si>
     <t>输入邮件主题</t>
@@ -279,7 +279,7 @@
     <t>//div[@title='点击添加附件' and @class='by0']</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:04</t>
+    <t>2018-06-20 22:19:18</t>
   </si>
   <si>
     <t>输入附件所在绝对路径</t>
@@ -291,7 +291,7 @@
     <t>d:\\a.txt</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:06</t>
+    <t>2018-06-20 22:19:20</t>
   </si>
   <si>
     <t>模拟键盘回车键</t>
@@ -306,7 +306,7 @@
     <t>//span[.="上传完成"]</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:07</t>
+    <t>2018-06-20 22:19:21</t>
   </si>
   <si>
     <t>如果邮件正文的frame框是可见，切换进入该frame中</t>
@@ -324,7 +324,7 @@
     <t>发给爸爸的一封信</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:08</t>
+    <t>2018-06-20 22:19:22</t>
   </si>
   <si>
     <t>退出邮件正文的frame</t>
@@ -339,7 +339,7 @@
     <t>等待邮件发送成功，返回结果</t>
   </si>
   <si>
-    <t>2018-06-12 22:58:11</t>
+    <t>2018-06-20 22:19:25</t>
   </si>
   <si>
     <t>断言页面中是否出现“发送成功”关键字</t>
@@ -348,10 +348,79 @@
     <t>发送成功</t>
   </si>
   <si>
+    <t>2018-06-20 22:19:26</t>
+  </si>
+  <si>
     <t>关闭浏览器</t>
   </si>
   <si>
     <t>close_browser</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:33</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:35</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:40</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:\PyCharm2017.3.3\KeyWordsFrameWork\action\PageAction.py", line 73, in assert_string_in_pagesource
+    assert assertString in driver.page_source, "%s not found in page source" %assertString
+AssertionError: 126网易免费邮--你的电子邮局 not found in page source
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "D:/PyCharm2017.3.3/KeyWordsFrameWork/testScripts/TestSendMailWithAttachment.py", line 108, in TestSendMailWithAttachment
+    eval(expressionStr)
+  File "&lt;string&gt;", line 1, in &lt;module&gt;
+  File "D:\PyCharm2017.3.3\KeyWordsFrameWork\action\PageAction.py", line 75, in assert_string_in_pagesource
+    raise AssertionError(e)
+AssertionError: 126网易免费邮--你的电子邮局 not found in page source
+</t>
+  </si>
+  <si>
+    <t>D:\PyCharm2017.3.3\KeyWordsFrameWork\exceptionpictures\2018-8-30\21-40-40-621106.png</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:42</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:43</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:48</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:54</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:55</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:57</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:40:58</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:41:01</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:41:02</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:41:03</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:41:07</t>
+  </si>
+  <si>
+    <t>2018-08-30 21:41:12</t>
   </si>
 </sst>
 </file>
@@ -359,181 +428,187 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF008B00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF3030"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FFFF3030"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF008B00"/>
+    </font>
+    <font>
+      <color rgb="FFFF3030"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -833,228 +908,231 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="12" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1343,21 +1421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.75"/>
+    <col customWidth="1" max="6" min="6" style="1" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1380,8 +1461,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:10">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1397,14 +1478,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1420,37 +1503,41 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="37.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="30.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="33.75"/>
+    <col customWidth="1" max="5" min="5" style="1" width="31.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="25.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="16.75"/>
+    <col customWidth="1" max="9" min="9" style="1" width="14.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1485,8 +1572,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:10">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="27" r="2" s="1" spans="1:10">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1495,22 +1582,22 @@
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" ht="46" customHeight="1" spans="1:10">
-      <c r="A3" s="2">
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s"/>
+      <c r="J2" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="46" r="3" s="1" spans="1:10">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1519,22 +1606,22 @@
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:10">
-      <c r="A4" s="2">
+        <v>109</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s"/>
+      <c r="J3" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" s="1" spans="1:10">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1543,20 +1630,20 @@
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s"/>
+      <c r="J4" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" s="1" spans="1:10">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1565,22 +1652,22 @@
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s"/>
+      <c r="J5" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1589,52 +1676,52 @@
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" s="1" spans="1:10">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:10">
-      <c r="A8" s="2">
+        <v>112</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s"/>
+      <c r="J7" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" s="1" spans="1:10">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1653,16 +1740,16 @@
         <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:10">
-      <c r="A9" s="2">
+        <v>115</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s"/>
+      <c r="J8" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" s="1" spans="1:10">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1681,42 +1768,42 @@
         <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s"/>
+      <c r="J9" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" s="1" spans="1:10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:10">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:10">
-      <c r="A11" s="2">
+        <v>116</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s"/>
+      <c r="J10" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1725,22 +1812,22 @@
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="27" customHeight="1" spans="1:10">
-      <c r="A12" s="2">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s"/>
+      <c r="J11" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="12" s="1" spans="1:10">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1749,20 +1836,20 @@
       <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:10">
-      <c r="A13" s="2">
+        <v>118</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s"/>
+      <c r="J12" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="13" s="1" spans="1:10">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1771,45 +1858,47 @@
       <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s"/>
+      <c r="J13" s="2" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="http://www.126.com"/>
+    <hyperlink display="http://www.126.com" ref="F3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31"/>
+    <col customWidth="1" max="5" min="5" style="1" width="31.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="15.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1844,8 +1933,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:10">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="54" r="2" s="1" spans="1:10">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1860,25 +1949,25 @@
       <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:10">
-      <c r="A3" s="2">
+        <v>119</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s"/>
+      <c r="J2" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="1" spans="1:10">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
@@ -1886,18 +1975,18 @@
       <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:10">
-      <c r="A4" s="2">
+        <v>119</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s"/>
+      <c r="J3" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" s="1" spans="1:10">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1916,16 +2005,16 @@
         <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+        <v>120</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s"/>
+      <c r="J4" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" s="1" spans="1:10">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1944,23 +2033,23 @@
         <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+        <v>121</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s"/>
+      <c r="J5" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>53</v>
@@ -1968,18 +2057,18 @@
       <c r="E6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+        <v>121</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s"/>
+      <c r="J6" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" s="1" spans="1:10">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1988,22 +2077,22 @@
       <c r="C7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:10">
-      <c r="A8" s="2">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s"/>
+      <c r="J7" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" s="1" spans="1:10">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2012,20 +2101,20 @@
       <c r="C8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" ht="54" customHeight="1" spans="1:10">
-      <c r="A9" s="2">
+        <v>122</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s"/>
+      <c r="J8" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="9" s="1" spans="1:10">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2040,25 +2129,25 @@
       <c r="E9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="67.5" customHeight="1" spans="1:10">
-      <c r="A10" s="2">
+        <v>123</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s"/>
+      <c r="J9" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="10" s="1" spans="1:10">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2066,18 +2155,18 @@
       <c r="E10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:10">
-      <c r="A11" s="2">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s"/>
+      <c r="J10" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2096,16 +2185,16 @@
         <v>97</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="54" customHeight="1" spans="1:10">
-      <c r="A12" s="2">
+        <v>124</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s"/>
+      <c r="J11" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="12" s="1" spans="1:10">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2114,27 +2203,27 @@
       <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:10">
-      <c r="A13" s="2">
+        <v>124</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s"/>
+      <c r="J12" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="13" s="1" spans="1:10">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -2142,18 +2231,18 @@
       <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" ht="27" customHeight="1" spans="1:10">
-      <c r="A14" s="2">
+        <v>124</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s"/>
+      <c r="J13" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="14" s="1" spans="1:10">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2162,22 +2251,22 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="1:10">
-      <c r="A15" s="2">
+        <v>125</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s"/>
+      <c r="J14" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="15" s="1" spans="1:10">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2186,44 +2275,43 @@
       <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:10">
-      <c r="A16" s="2">
+        <v>125</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s"/>
+      <c r="J15" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="16" s="1" spans="1:10">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s"/>
+      <c r="J16" s="2" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>